--- a/outputs/saida.xlsx
+++ b/outputs/saida.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="324" windowWidth="15012" windowHeight="6624"/>
+    <workbookView xWindow="576" yWindow="324" windowWidth="15012" windowHeight="6624" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="saida_4 meses" sheetId="1" r:id="rId1"/>
     <sheet name="saida_2 anos" sheetId="2" r:id="rId2"/>
     <sheet name="analise grafica" sheetId="3" r:id="rId3"/>
+    <sheet name="07-04-2013" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="137">
   <si>
     <t>ALLL11</t>
   </si>
@@ -52,13 +53,388 @@
   </si>
   <si>
     <t>4 meses</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>63.5135</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>62.4324</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>58.5135</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>57.8378</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>53.9189</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>arcz6</t>
+  </si>
+  <si>
+    <t>65.5405</t>
+  </si>
+  <si>
+    <t>61.7568</t>
+  </si>
+  <si>
+    <t>56.6216</t>
+  </si>
+  <si>
+    <t>52.7027</t>
+  </si>
+  <si>
+    <t>vale5</t>
+  </si>
+  <si>
+    <t>66.8919</t>
+  </si>
+  <si>
+    <t>61.6216</t>
+  </si>
+  <si>
+    <t>59.1892</t>
+  </si>
+  <si>
+    <t>54.8649</t>
+  </si>
+  <si>
+    <t>54.3243</t>
+  </si>
+  <si>
+    <t>53.3784</t>
+  </si>
+  <si>
+    <t>vivo4</t>
+  </si>
+  <si>
+    <t>67.1622</t>
+  </si>
+  <si>
+    <t>60.5405</t>
+  </si>
+  <si>
+    <t>57.027</t>
+  </si>
+  <si>
+    <t>54.0541</t>
+  </si>
+  <si>
+    <t>53.1081</t>
+  </si>
+  <si>
+    <t>petr4</t>
+  </si>
+  <si>
+    <t>69.3243</t>
+  </si>
+  <si>
+    <t>63.9189</t>
+  </si>
+  <si>
+    <t>64.1892</t>
+  </si>
+  <si>
+    <t>59.5946</t>
+  </si>
+  <si>
+    <t>57.5676</t>
+  </si>
+  <si>
+    <t>56.3514</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>ligt3</t>
+  </si>
+  <si>
+    <t>68.5135</t>
+  </si>
+  <si>
+    <t>64.3243</t>
+  </si>
+  <si>
+    <t>56.0811</t>
+  </si>
+  <si>
+    <t>55.5405</t>
+  </si>
+  <si>
+    <t>52.8378</t>
+  </si>
+  <si>
+    <t>alll11</t>
+  </si>
+  <si>
+    <t>REGLOG</t>
+  </si>
+  <si>
+    <t>SVM_K</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>49.3243</t>
+  </si>
+  <si>
+    <t>48.5302</t>
+  </si>
+  <si>
+    <t>50.8108</t>
+  </si>
+  <si>
+    <t>51.04</t>
+  </si>
+  <si>
+    <t>53.2432</t>
+  </si>
+  <si>
+    <t>47.1622</t>
+  </si>
+  <si>
+    <t>55.1329</t>
+  </si>
+  <si>
+    <t>48.3784</t>
+  </si>
+  <si>
+    <t>51.1717</t>
+  </si>
+  <si>
+    <t>52.027</t>
+  </si>
+  <si>
+    <t>48.5135</t>
+  </si>
+  <si>
+    <t>52.8802</t>
+  </si>
+  <si>
+    <t>53.5135</t>
+  </si>
+  <si>
+    <t>49.5946</t>
+  </si>
+  <si>
+    <t>54.5946</t>
+  </si>
+  <si>
+    <t>52.2214</t>
+  </si>
+  <si>
+    <t>54.5023</t>
+  </si>
+  <si>
+    <t>51.0918</t>
+  </si>
+  <si>
+    <t>45.6757</t>
+  </si>
+  <si>
+    <t>51.7225</t>
+  </si>
+  <si>
+    <t>50.5405</t>
+  </si>
+  <si>
+    <t>52.3359</t>
+  </si>
+  <si>
+    <t>54.4595</t>
+  </si>
+  <si>
+    <t>49.7052</t>
+  </si>
+  <si>
+    <t>54.0033</t>
+  </si>
+  <si>
+    <t>57.4324</t>
+  </si>
+  <si>
+    <t>51.5908</t>
+  </si>
+  <si>
+    <t>47.7027</t>
+  </si>
+  <si>
+    <t>49.2235</t>
+  </si>
+  <si>
+    <t>48.9189</t>
+  </si>
+  <si>
+    <t>49.6015</t>
+  </si>
+  <si>
+    <t>51.5108</t>
+  </si>
+  <si>
+    <t>55.1351</t>
+  </si>
+  <si>
+    <t>51.1782</t>
+  </si>
+  <si>
+    <t>59.7297</t>
+  </si>
+  <si>
+    <t>49.865</t>
+  </si>
+  <si>
+    <t>57.1622</t>
+  </si>
+  <si>
+    <t>54.1869</t>
+  </si>
+  <si>
+    <t>49.0541</t>
+  </si>
+  <si>
+    <t>49.3207</t>
+  </si>
+  <si>
+    <t>51.6216</t>
+  </si>
+  <si>
+    <t>49.3726</t>
+  </si>
+  <si>
+    <t>53.958</t>
+  </si>
+  <si>
+    <t>50.1458</t>
+  </si>
+  <si>
+    <t>51.2754</t>
+  </si>
+  <si>
+    <t>50.3639</t>
+  </si>
+  <si>
+    <t>47.8477</t>
+  </si>
+  <si>
+    <t>58.3784</t>
+  </si>
+  <si>
+    <t>47.5842</t>
+  </si>
+  <si>
+    <t>54.7297</t>
+  </si>
+  <si>
+    <t>54.1524</t>
+  </si>
+  <si>
+    <t>53.9688</t>
+  </si>
+  <si>
+    <t>59.0541</t>
+  </si>
+  <si>
+    <t>52.4331</t>
+  </si>
+  <si>
+    <t>46.8919</t>
+  </si>
+  <si>
+    <t>50.1976</t>
+  </si>
+  <si>
+    <t>47.9622</t>
+  </si>
+  <si>
+    <t>48.163</t>
+  </si>
+  <si>
+    <t>57.973</t>
+  </si>
+  <si>
+    <t>54.8284</t>
+  </si>
+  <si>
+    <t>50.8564</t>
+  </si>
+  <si>
+    <t>50.3985</t>
+  </si>
+  <si>
+    <t>51.2162</t>
+  </si>
+  <si>
+    <t>46.7526</t>
+  </si>
+  <si>
+    <t>48.541</t>
+  </si>
+  <si>
+    <t>52.5676</t>
+  </si>
+  <si>
+    <t>47.6987</t>
+  </si>
+  <si>
+    <t>60.1351</t>
+  </si>
+  <si>
+    <t>53.7053</t>
+  </si>
+  <si>
+    <t>51.2063</t>
+  </si>
+  <si>
+    <t>56.8919</t>
+  </si>
+  <si>
+    <t>51.8651</t>
+  </si>
+  <si>
+    <t>47.8131</t>
+  </si>
+  <si>
+    <t>52.2973</t>
+  </si>
+  <si>
+    <t>47.865</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +577,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="42">
@@ -438,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -553,6 +949,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -598,7 +1121,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -639,15 +1162,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -659,9 +1173,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1082,11 +1636,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="90326912"/>
-        <c:axId val="90328448"/>
+        <c:axId val="49170688"/>
+        <c:axId val="49188864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90326912"/>
+        <c:axId val="49170688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,13 +1648,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90328448"/>
+        <c:crossAx val="49188864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90328448"/>
+        <c:axId val="49188864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.45"/>
@@ -1109,7 +1663,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90326912"/>
+        <c:crossAx val="49170688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -1123,7 +1677,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1475,11 +2029,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="112925312"/>
-        <c:axId val="112931200"/>
+        <c:axId val="53463680"/>
+        <c:axId val="50725248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112925312"/>
+        <c:axId val="53463680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,23 +2041,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112931200"/>
+        <c:crossAx val="50725248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112931200"/>
+        <c:axId val="50725248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.94000000000000006"/>
+          <c:max val="0.94000000000000017"/>
           <c:min val="0.45"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112925312"/>
+        <c:crossAx val="53463680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -1517,7 +2071,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1893,11 +2447,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="112596096"/>
-        <c:axId val="112597632"/>
+        <c:axId val="50755840"/>
+        <c:axId val="50774016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112596096"/>
+        <c:axId val="50755840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,22 +2459,22 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112597632"/>
+        <c:crossAx val="50774016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112597632"/>
+        <c:axId val="50774016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.42000000000000021"/>
+          <c:min val="0.42000000000000026"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112596096"/>
+        <c:crossAx val="50755840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -1934,7 +2488,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2286,11 +2840,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="114872320"/>
-        <c:axId val="114873856"/>
+        <c:axId val="53557120"/>
+        <c:axId val="53558656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114872320"/>
+        <c:axId val="53557120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,13 +2852,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114873856"/>
+        <c:crossAx val="53558656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114873856"/>
+        <c:axId val="53558656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.93"/>
@@ -2314,7 +2868,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114872320"/>
+        <c:crossAx val="53557120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -2328,7 +2882,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2680,11 +3234,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="107835776"/>
-        <c:axId val="107837312"/>
+        <c:axId val="49207552"/>
+        <c:axId val="49287168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107835776"/>
+        <c:axId val="49207552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,13 +3246,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107837312"/>
+        <c:crossAx val="49287168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107837312"/>
+        <c:axId val="49287168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.99"/>
@@ -2708,7 +3262,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107835776"/>
+        <c:crossAx val="49207552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -2722,7 +3276,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2752,8 +3306,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41904852986494123"/>
-          <c:y val="3.1111111111111128E-2"/>
+          <c:x val="0.4190485298649414"/>
+          <c:y val="3.1111111111111138E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -3105,11 +3659,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="90507904"/>
-        <c:axId val="90513792"/>
+        <c:axId val="49313664"/>
+        <c:axId val="49315200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90507904"/>
+        <c:axId val="49313664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,13 +3671,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90513792"/>
+        <c:crossAx val="49315200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90513792"/>
+        <c:axId val="49315200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.45"/>
@@ -3132,7 +3686,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90507904"/>
+        <c:crossAx val="49313664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -3146,7 +3700,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3176,8 +3730,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41904852986494151"/>
-          <c:y val="3.1111111111111145E-2"/>
+          <c:x val="0.41904852986494162"/>
+          <c:y val="3.1111111111111152E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -3505,11 +4059,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="107851776"/>
-        <c:axId val="107853312"/>
+        <c:axId val="49346048"/>
+        <c:axId val="49347584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107851776"/>
+        <c:axId val="49346048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,23 +4071,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107853312"/>
+        <c:crossAx val="49347584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107853312"/>
+        <c:axId val="49347584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.96000000000000008"/>
+          <c:max val="0.96000000000000019"/>
           <c:min val="0.45"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107851776"/>
+        <c:crossAx val="49346048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -3547,7 +4101,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3923,11 +4477,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="110245760"/>
-        <c:axId val="111682304"/>
+        <c:axId val="49529984"/>
+        <c:axId val="49531520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110245760"/>
+        <c:axId val="49529984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3935,13 +4489,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111682304"/>
+        <c:crossAx val="49531520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111682304"/>
+        <c:axId val="49531520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.45"/>
@@ -3950,7 +4504,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110245760"/>
+        <c:crossAx val="49529984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -3964,7 +4518,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4272,11 +4826,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="109911424"/>
-        <c:axId val="109913216"/>
+        <c:axId val="49632000"/>
+        <c:axId val="49633536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109911424"/>
+        <c:axId val="49632000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4284,23 +4838,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109913216"/>
+        <c:crossAx val="49633536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109913216"/>
+        <c:axId val="49633536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.84000000000000008"/>
+          <c:max val="0.84000000000000019"/>
           <c:min val="0.45"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109911424"/>
+        <c:crossAx val="49632000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -4314,7 +4868,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4690,11 +5244,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="90484096"/>
-        <c:axId val="109130880"/>
+        <c:axId val="51196288"/>
+        <c:axId val="51197824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90484096"/>
+        <c:axId val="51196288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4702,13 +5256,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109130880"/>
+        <c:crossAx val="51197824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109130880"/>
+        <c:axId val="51197824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.46"/>
@@ -4717,7 +5271,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90484096"/>
+        <c:crossAx val="51196288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -4731,7 +5285,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5083,11 +5637,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88227200"/>
-        <c:axId val="88241280"/>
+        <c:axId val="51223936"/>
+        <c:axId val="51229824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88227200"/>
+        <c:axId val="51223936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,13 +5649,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88241280"/>
+        <c:crossAx val="51229824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88241280"/>
+        <c:axId val="51229824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.88"/>
@@ -5111,7 +5665,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88227200"/>
+        <c:crossAx val="51223936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -5125,7 +5679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5501,11 +6055,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="3277184"/>
-        <c:axId val="3279104"/>
+        <c:axId val="53419008"/>
+        <c:axId val="53445376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3277184"/>
+        <c:axId val="53419008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5513,13 +6067,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="3279104"/>
+        <c:crossAx val="53445376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3279104"/>
+        <c:axId val="53445376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.45"/>
@@ -5528,7 +6082,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="3277184"/>
+        <c:crossAx val="53419008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000002E-2"/>
@@ -5542,7 +6096,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6200,8 +6754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -6995,61 +7549,61 @@
     </row>
     <row r="8" spans="1:42" s="19" customFormat="1">
       <c r="B8" s="5"/>
-      <c r="C8" s="32">
+      <c r="C8" s="42">
         <v>3</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="32">
+      <c r="H8" s="42">
         <v>5</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="32">
+      <c r="M8" s="42">
         <v>10</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="32">
+      <c r="R8" s="42">
         <v>15</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="32">
+      <c r="W8" s="42">
         <v>20</v>
       </c>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="32">
+      <c r="AB8" s="42">
         <v>40</v>
       </c>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="32">
+      <c r="AG8" s="42">
         <v>60</v>
       </c>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
       <c r="AK8" s="5"/>
-      <c r="AL8" s="32">
+      <c r="AL8" s="42">
         <v>100</v>
       </c>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
       <c r="AP8" s="5"/>
     </row>
     <row r="9" spans="1:42" s="19" customFormat="1" outlineLevel="1"/>
@@ -7059,64 +7613,64 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
     </row>
     <row r="11" spans="1:42" outlineLevel="1">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="H11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="M11" s="33" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="M11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="R11" s="33" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="R11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="W11" s="33" t="s">
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="W11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AB11" s="33" t="s">
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AB11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
     </row>
     <row r="12" spans="1:42" outlineLevel="1">
       <c r="C12" s="2" t="s">
@@ -7193,7 +7747,7 @@
       </c>
     </row>
     <row r="13" spans="1:42" outlineLevel="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2">
@@ -7312,7 +7866,7 @@
       </c>
     </row>
     <row r="14" spans="1:42" outlineLevel="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -7429,7 +7983,7 @@
       </c>
     </row>
     <row r="15" spans="1:42" outlineLevel="1">
-      <c r="A15" s="34"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -7546,7 +8100,7 @@
       </c>
     </row>
     <row r="16" spans="1:42" outlineLevel="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -7663,7 +8217,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" outlineLevel="1">
-      <c r="A17" s="34"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="2">
         <v>20</v>
       </c>
@@ -7780,7 +8334,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" outlineLevel="1">
-      <c r="A18" s="34"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="2">
         <v>40</v>
       </c>
@@ -7897,7 +8451,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" outlineLevel="1">
-      <c r="A19" s="34"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="2">
         <v>60</v>
       </c>
@@ -8130,31 +8684,34 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="43"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
     </row>
     <row r="22" spans="1:31" outlineLevel="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="R11:U11"/>
@@ -8167,9 +8724,6 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="R8:U8"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.22" bottom="0.12" header="0.14000000000000001" footer="0.08"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8180,8 +8734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -8495,199 +9049,199 @@
       </c>
       <c r="AK3" s="23"/>
     </row>
-    <row r="4" spans="1:37" s="41" customFormat="1">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:37" s="38" customFormat="1">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="37">
+      <c r="C4" s="34">
         <v>47.162199999999999</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="35">
         <v>48.378399999999999</v>
       </c>
       <c r="E4" s="28">
         <v>49.864899999999999</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="36">
         <v>53.918900000000001</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="37">
+      <c r="H4" s="34">
         <v>47.162199999999999</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="35">
         <v>45.675699999999999</v>
       </c>
       <c r="J4" s="28">
         <v>53.243200000000002</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="36">
         <v>54.1892</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="37">
+      <c r="M4" s="34">
         <v>47.162199999999999</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="35">
         <v>47.7027</v>
       </c>
       <c r="O4" s="28">
         <v>52.293700000000001</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="36">
         <v>55.8108</v>
       </c>
       <c r="Q4" s="16"/>
-      <c r="R4" s="37">
+      <c r="R4" s="34">
         <v>47.162199999999999</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S4" s="35">
         <v>49.054099999999998</v>
       </c>
       <c r="T4" s="28">
         <v>51.351300000000002</v>
       </c>
-      <c r="U4" s="39">
+      <c r="U4" s="36">
         <v>55.8108</v>
       </c>
       <c r="V4" s="16"/>
-      <c r="W4" s="37">
+      <c r="W4" s="34">
         <v>47.162199999999999</v>
       </c>
-      <c r="X4" s="38">
+      <c r="X4" s="35">
         <v>48.918900000000001</v>
       </c>
       <c r="Y4" s="28">
         <v>52.162199999999999</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="Z4" s="36">
         <v>58.783799999999999</v>
       </c>
       <c r="AA4" s="16"/>
-      <c r="AB4" s="37">
+      <c r="AB4" s="34">
         <v>47.162199999999999</v>
       </c>
-      <c r="AC4" s="38">
+      <c r="AC4" s="35">
         <v>46.8919</v>
       </c>
       <c r="AD4" s="28">
         <v>51.8919</v>
       </c>
-      <c r="AE4" s="39">
+      <c r="AE4" s="36">
         <v>60.135100000000001</v>
       </c>
       <c r="AF4" s="16"/>
-      <c r="AG4" s="37">
+      <c r="AG4" s="34">
         <v>47.162199999999999</v>
       </c>
-      <c r="AH4" s="38">
+      <c r="AH4" s="35">
         <v>51.216200000000001</v>
       </c>
       <c r="AI4" s="28">
         <v>51.081099999999999</v>
       </c>
-      <c r="AJ4" s="39">
+      <c r="AJ4" s="36">
         <v>61.621600000000001</v>
       </c>
-      <c r="AK4" s="40"/>
+      <c r="AK4" s="37"/>
     </row>
-    <row r="5" spans="1:37" s="41" customFormat="1">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:37" s="38" customFormat="1">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="37">
+      <c r="C5" s="34">
         <v>48.378399999999999</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="35">
         <v>52.027000000000001</v>
       </c>
       <c r="E5" s="28">
         <v>46.8919</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="36">
         <v>53.378399999999999</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="37">
+      <c r="H5" s="34">
         <v>48.378399999999999</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="35">
         <v>50.540500000000002</v>
       </c>
       <c r="J5" s="28">
         <v>47.027000000000001</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="36">
         <v>53.378399999999999</v>
       </c>
       <c r="L5" s="16"/>
-      <c r="M5" s="37">
+      <c r="M5" s="34">
         <v>48.378399999999999</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="35">
         <v>48.918900000000001</v>
       </c>
       <c r="O5" s="28">
         <v>45.8108</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="36">
         <v>53.783799999999999</v>
       </c>
       <c r="Q5" s="16"/>
-      <c r="R5" s="37">
+      <c r="R5" s="34">
         <v>48.378399999999999</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5" s="35">
         <v>51.621600000000001</v>
       </c>
       <c r="T5" s="28">
         <v>45</v>
       </c>
-      <c r="U5" s="39">
+      <c r="U5" s="36">
         <v>54.5946</v>
       </c>
       <c r="V5" s="16"/>
-      <c r="W5" s="37">
+      <c r="W5" s="34">
         <v>48.378399999999999</v>
       </c>
-      <c r="X5" s="38">
+      <c r="X5" s="35">
         <v>53.378399999999999</v>
       </c>
       <c r="Y5" s="28">
         <v>47.567599999999999</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="36">
         <v>54.864899999999999</v>
       </c>
       <c r="AA5" s="16"/>
-      <c r="AB5" s="37">
+      <c r="AB5" s="34">
         <v>48.378399999999999</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AC5" s="35">
         <v>52.7027</v>
       </c>
       <c r="AD5" s="28">
         <v>49.5946</v>
       </c>
-      <c r="AE5" s="39">
+      <c r="AE5" s="36">
         <v>58.783799999999999</v>
       </c>
       <c r="AF5" s="16"/>
-      <c r="AG5" s="37">
+      <c r="AG5" s="34">
         <v>48.378399999999999</v>
       </c>
-      <c r="AH5" s="38">
+      <c r="AH5" s="35">
         <v>52.7027</v>
       </c>
       <c r="AI5" s="28">
         <v>48.783799999999999</v>
       </c>
-      <c r="AJ5" s="39">
+      <c r="AJ5" s="36">
         <v>61.756799999999998</v>
       </c>
-      <c r="AK5" s="40"/>
+      <c r="AK5" s="37"/>
     </row>
     <row r="6" spans="1:37" s="31" customFormat="1">
       <c r="A6" s="24" t="s">
@@ -8800,7 +9354,7 @@
       <c r="E7" s="6">
         <v>46.981099999999998</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>53.918900000000001</v>
       </c>
       <c r="G7" s="15"/>
@@ -8885,54 +9439,54 @@
     </row>
     <row r="8" spans="1:37">
       <c r="B8" s="5"/>
-      <c r="C8" s="32">
+      <c r="C8" s="42">
         <v>3</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="32">
+      <c r="H8" s="42">
         <v>5</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="32">
+      <c r="M8" s="42">
         <v>10</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="32">
+      <c r="R8" s="42">
         <v>15</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="32">
+      <c r="W8" s="42">
         <v>20</v>
       </c>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="32">
+      <c r="AB8" s="42">
         <v>40</v>
       </c>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="32">
+      <c r="AG8" s="42">
         <v>60</v>
       </c>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
       <c r="AK8" s="5"/>
     </row>
     <row r="9" spans="1:37" outlineLevel="1"/>
@@ -8942,64 +9496,64 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
     </row>
     <row r="11" spans="1:37" outlineLevel="1">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="H11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="M11" s="33" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="M11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="R11" s="33" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="R11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="W11" s="33" t="s">
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="W11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AB11" s="33" t="s">
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AB11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
     </row>
     <row r="12" spans="1:37" outlineLevel="1">
       <c r="C12" s="2" t="s">
@@ -9076,7 +9630,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" outlineLevel="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2">
@@ -9195,7 +9749,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" outlineLevel="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -9312,7 +9866,7 @@
       </c>
     </row>
     <row r="15" spans="1:37" outlineLevel="1">
-      <c r="A15" s="34"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -9429,7 +9983,7 @@
       </c>
     </row>
     <row r="16" spans="1:37" outlineLevel="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -9546,7 +10100,7 @@
       </c>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="34"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="2">
         <v>20</v>
       </c>
@@ -9663,7 +10217,7 @@
       </c>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="34"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="2">
         <v>40</v>
       </c>
@@ -9780,7 +10334,7 @@
       </c>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="34"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="2">
         <v>60</v>
       </c>
@@ -9902,44 +10456,44 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="43"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="M8:P8"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="W8:Z8"/>
     <mergeCell ref="AB8:AE8"/>
@@ -9953,18 +10507,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="42" customWidth="1"/>
-    <col min="2" max="7" width="8.88671875" style="42"/>
-    <col min="8" max="8" width="15.33203125" style="42" customWidth="1"/>
-    <col min="9" max="16" width="8.88671875" style="42"/>
-    <col min="17" max="17" width="6.109375" style="42" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="1" width="8.88671875" style="39" customWidth="1"/>
+    <col min="2" max="7" width="8.88671875" style="39"/>
+    <col min="8" max="8" width="15.33203125" style="39" customWidth="1"/>
+    <col min="9" max="16" width="8.88671875" style="39"/>
+    <col min="17" max="17" width="6.109375" style="39" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="31.2">
@@ -9996,4 +10550,1184 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK25" sqref="AK25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="47"/>
+    <col min="2" max="2" width="2" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="47" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="47"/>
+    <col min="7" max="7" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.88671875" style="47"/>
+    <col min="13" max="13" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="55" customWidth="1"/>
+    <col min="15" max="18" width="8.88671875" style="47"/>
+    <col min="19" max="19" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" style="55" customWidth="1"/>
+    <col min="21" max="24" width="8.88671875" style="47"/>
+    <col min="25" max="25" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" style="55" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="8.88671875" style="47"/>
+    <col min="31" max="31" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3" style="55" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="8.88671875" style="47"/>
+    <col min="38" max="38" width="3" style="55" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="8.88671875" style="47"/>
+    <col min="43" max="43" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4" style="55" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="8.88671875" style="47"/>
+    <col min="49" max="49" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="8.88671875" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49">
+      <c r="A1" s="45"/>
+      <c r="B1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW1" s="46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" s="61" customFormat="1">
+      <c r="A2" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD2" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ2" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP2" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU2" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV2" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW2" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" s="61" customFormat="1">
+      <c r="A3" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN3" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP3" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT3" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU3" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV3" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW3" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" s="61" customFormat="1">
+      <c r="A4" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD4" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ4" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN4" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO4" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP4" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR4" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT4" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU4" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV4" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW4" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" s="61" customFormat="1">
+      <c r="A5" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="X5" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB5" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD5" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI5" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN5" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO5" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT5" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU5" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV5" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW5" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" s="55" customFormat="1">
+      <c r="A6" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB6" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD6" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ6" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL6" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN6" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO6" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP6" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR6" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT6" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU6" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV6" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW6" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" s="55" customFormat="1">
+      <c r="A7" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="V7" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD7" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ7" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO7" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP7" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU7" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV7" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW7" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" ht="13.8" thickBot="1">
+      <c r="A8" s="50"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="51">
+        <v>3</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="51">
+        <v>5</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52">
+        <v>10</v>
+      </c>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52">
+        <v>15</v>
+      </c>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="51">
+        <v>40</v>
+      </c>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="51">
+        <v>60</v>
+      </c>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="52"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="51">
+        <v>100</v>
+      </c>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="52"/>
+      <c r="AU8" s="52"/>
+      <c r="AV8" s="52"/>
+      <c r="AW8" s="53"/>
+    </row>
+    <row r="12" spans="1:49">
+      <c r="A12" s="63"/>
+    </row>
+    <row r="13" spans="1:49">
+      <c r="A13" s="63"/>
+    </row>
+    <row r="14" spans="1:49">
+      <c r="A14" s="63"/>
+    </row>
+    <row r="15" spans="1:49">
+      <c r="A15" s="63"/>
+    </row>
+    <row r="16" spans="1:49">
+      <c r="A16" s="63"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="AL8:AQ8"/>
+    <mergeCell ref="AR8:AW8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>